--- a/Sensor_Model/Inputs/se_op_inputs.xlsx
+++ b/Sensor_Model/Inputs/se_op_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neilabh\Documents\GitHub\STADS_IITBSSP\Sensor_Model\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65CFB92-8524-476B-938A-5DD0DAF25AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C17F94B-C411-4720-B4F9-CECC8F932E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="se_op_inputs" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>8.1</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
